--- a/is_lab_1/crypt_2_lab/crypt_2_lab/bin/Debug/net7.0/Lab_2.xlsx
+++ b/is_lab_1/crypt_2_lab/crypt_2_lab/bin/Debug/net7.0/Lab_2.xlsx
@@ -12,12 +12,12 @@
     <sheet name="second" sheetId="3" r:id="rId3"/>
     <sheet name="third" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>a</t>
   </si>
@@ -115,6 +115,9 @@
     <t>е</t>
   </si>
   <si>
+    <t>ё</t>
+  </si>
+  <si>
     <t>ж</t>
   </si>
   <si>
@@ -127,6 +130,24 @@
     <t>й</t>
   </si>
   <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>л</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>н</t>
+  </si>
+  <si>
+    <t>о</t>
+  </si>
+  <si>
+    <t>п</t>
+  </si>
+  <si>
     <t>р</t>
   </si>
   <si>
@@ -179,13 +200,122 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Г</t>
+  </si>
+  <si>
+    <t>А</t>
+  </si>
+  <si>
+    <t>Е</t>
+  </si>
+  <si>
+    <t>В</t>
+  </si>
+  <si>
+    <t>М</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Н</t>
+  </si>
+  <si>
+    <t>О</t>
+  </si>
+  <si>
+    <t>Д</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2545,7 +2675,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:B45"/>
@@ -2554,12 +2683,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:BG4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
@@ -2567,328 +2697,659 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="AD1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="BF1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG1" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0">
+        <v>75</v>
+      </c>
+      <c r="C2" s="0">
+        <v>39</v>
+      </c>
+      <c r="D2" s="0">
+        <v>16</v>
+      </c>
+      <c r="E2" s="0">
+        <v>51</v>
+      </c>
+      <c r="F2" s="0">
+        <v>53</v>
+      </c>
+      <c r="G2" s="0">
+        <v>10</v>
+      </c>
+      <c r="H2" s="0">
+        <v>30</v>
+      </c>
+      <c r="I2" s="0">
+        <v>16</v>
+      </c>
+      <c r="J2" s="0">
+        <v>28</v>
+      </c>
+      <c r="K2" s="0">
+        <v>26</v>
+      </c>
+      <c r="L2" s="0">
+        <v>11</v>
+      </c>
+      <c r="M2" s="0">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0">
+        <v>15</v>
+      </c>
+      <c r="O2" s="0">
+        <v>15</v>
+      </c>
+      <c r="P2" s="0">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>16</v>
+      </c>
+      <c r="R2" s="0">
+        <v>1</v>
+      </c>
+      <c r="S2" s="0">
+        <v>35</v>
+      </c>
+      <c r="T2" s="0">
+        <v>3</v>
+      </c>
+      <c r="U2" s="0">
+        <v>3</v>
+      </c>
+      <c r="V2" s="0">
+        <v>22</v>
+      </c>
+      <c r="W2" s="0">
+        <v>5</v>
+      </c>
+      <c r="X2" s="0">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="AC2" s="0">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AE2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="0">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>6</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="0">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>5</v>
+      </c>
+      <c r="AM2" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AN2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>6</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AR2" s="0">
+        <v>11</v>
+      </c>
+      <c r="AS2" s="0">
+        <v>10</v>
+      </c>
+      <c r="AT2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="0">
+        <v>5</v>
+      </c>
+      <c r="AX2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="0">
+        <v>3</v>
+      </c>
+      <c r="AZ2" s="0">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="0">
+        <v>2</v>
+      </c>
+      <c r="BB2" s="0">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="0">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="0">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="0">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="0">
+        <v>2</v>
+      </c>
+      <c r="BG2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AD3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AR3" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT3" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0">
+        <v>162</v>
+      </c>
+      <c r="D4" s="0">
+        <v>68</v>
+      </c>
+      <c r="E4" s="0">
+        <v>62</v>
+      </c>
+      <c r="F4" s="0">
+        <v>63</v>
+      </c>
+      <c r="G4" s="0">
+        <v>14</v>
+      </c>
+      <c r="H4" s="0">
+        <v>149</v>
+      </c>
+      <c r="I4" s="0">
+        <v>14</v>
+      </c>
+      <c r="J4" s="0">
+        <v>34</v>
+      </c>
+      <c r="K4" s="0">
+        <v>79</v>
+      </c>
+      <c r="L4" s="0">
+        <v>166</v>
+      </c>
+      <c r="M4" s="0">
+        <v>61</v>
+      </c>
+      <c r="N4" s="0">
+        <v>35</v>
+      </c>
+      <c r="O4" s="0">
+        <v>6</v>
+      </c>
+      <c r="P4" s="0">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>48</v>
+      </c>
+      <c r="R4" s="0">
+        <v>18</v>
+      </c>
+      <c r="S4" s="0">
+        <v>30</v>
+      </c>
+      <c r="T4" s="0">
+        <v>53</v>
+      </c>
+      <c r="U4" s="0">
+        <v>7</v>
+      </c>
+      <c r="V4" s="0">
+        <v>62</v>
+      </c>
+      <c r="W4" s="0">
+        <v>7</v>
+      </c>
+      <c r="X4" s="0">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="0">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="0">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AA4" s="0">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="0">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="0">
+        <v>11</v>
+      </c>
+      <c r="AD4" s="0">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="AE4" s="0">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AF4" s="0">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="0">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="0">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6.5802592223330014E-2</v>
-      </c>
-      <c r="B2">
-        <v>3.1904287138584245E-2</v>
-      </c>
-      <c r="C2">
-        <v>2.5922233300099701E-2</v>
-      </c>
-      <c r="D2">
-        <v>4.8853439680957129E-2</v>
-      </c>
-      <c r="E2">
-        <v>0.18743768693918245</v>
-      </c>
-      <c r="F2">
-        <v>1.794616151545364E-2</v>
-      </c>
-      <c r="G2">
-        <v>2.3928215353938187E-2</v>
-      </c>
-      <c r="H2">
-        <v>3.9880358923230309E-2</v>
-      </c>
-      <c r="I2">
-        <v>7.5772681954137583E-2</v>
-      </c>
-      <c r="J2">
-        <v>9.9700897308075765E-4</v>
-      </c>
-      <c r="K2">
-        <v>1.4955134596211365E-2</v>
-      </c>
-      <c r="L2">
-        <v>3.2901296111665007E-2</v>
-      </c>
-      <c r="M2">
-        <v>2.3928215353938187E-2</v>
-      </c>
-      <c r="N2">
-        <v>0.10967098703888335</v>
-      </c>
-      <c r="O2">
-        <v>2.5922233300099701E-2</v>
-      </c>
-      <c r="P2">
-        <v>1.4955134596211365E-2</v>
-      </c>
-      <c r="Q2">
-        <v>6.6799601196410763E-2</v>
-      </c>
-      <c r="R2">
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="S2">
-        <v>5.4835493519441676E-2</v>
-      </c>
-      <c r="T2">
-        <v>2.4925224327018942E-2</v>
-      </c>
-      <c r="U2">
-        <v>1.1964107676969093E-2</v>
-      </c>
-      <c r="V2">
-        <v>6.979062811565304E-3</v>
-      </c>
-      <c r="W2">
-        <v>7.9760717846460612E-3</v>
-      </c>
-      <c r="X2">
-        <v>9.9700897308075765E-4</v>
-      </c>
-      <c r="Y2">
-        <v>3.9880358923230306E-3</v>
-      </c>
-      <c r="Z2">
-        <v>9.9700897308075765E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>7.9161816065192084E-2</v>
-      </c>
-      <c r="B4">
-        <v>1.3969732246798603E-2</v>
-      </c>
-      <c r="C4">
-        <v>5.8207217694994179E-2</v>
-      </c>
-      <c r="D4">
-        <v>1.2805587892898719E-2</v>
-      </c>
-      <c r="E4">
-        <v>2.5611175785797437E-2</v>
-      </c>
-      <c r="F4">
-        <v>6.2863795110593715E-2</v>
-      </c>
-      <c r="G4">
-        <v>5.8207217694994182E-3</v>
-      </c>
-      <c r="H4">
-        <v>1.1641443538998836E-2</v>
-      </c>
-      <c r="I4">
-        <v>8.8474970896391156E-2</v>
-      </c>
-      <c r="J4">
-        <v>9.3131548311990685E-3</v>
-      </c>
-      <c r="K4">
-        <v>3.9580908032596042E-2</v>
-      </c>
-      <c r="L4">
-        <v>4.7729918509895226E-2</v>
-      </c>
-      <c r="M4">
-        <v>8.0325960419091971E-2</v>
-      </c>
-      <c r="N4">
-        <v>1.6298020954598369E-2</v>
-      </c>
-      <c r="O4">
-        <v>1.3969732246798603E-2</v>
-      </c>
-      <c r="P4">
-        <v>1.7462165308498253E-2</v>
-      </c>
-      <c r="Q4">
-        <v>3.4924330616996507E-3</v>
-      </c>
-      <c r="R4">
-        <v>1.7462165308498253E-2</v>
-      </c>
-      <c r="S4">
-        <v>1.1641443538998836E-3</v>
-      </c>
-      <c r="T4">
-        <v>6.9848661233993014E-3</v>
-      </c>
-      <c r="U4">
-        <v>1.1641443538998836E-3</v>
-      </c>
-      <c r="V4">
-        <v>1.8626309662398137E-2</v>
-      </c>
-      <c r="W4">
-        <v>1.7462165308498253E-2</v>
-      </c>
-      <c r="X4">
-        <v>4.6565774155995342E-3</v>
-      </c>
-      <c r="Y4">
-        <v>5.8207217694994182E-3</v>
-      </c>
-      <c r="Z4">
-        <v>1.8626309662398137E-2</v>
+      <c r="AI4" s="0">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="0">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="0">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="0">
+        <v>6</v>
+      </c>
+      <c r="AM4" s="0">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="0">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="0">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="0">
+        <v>3</v>
+      </c>
+      <c r="AQ4" s="0">
+        <v>7</v>
+      </c>
+      <c r="AR4" s="0">
+        <v>7</v>
+      </c>
+      <c r="AS4" s="0">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="0">
+        <v>4</v>
+      </c>
+      <c r="AU4" s="0">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2903,46 +3364,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.48365290068829891</v>
-      </c>
-      <c r="B2">
-        <v>0.51634709931170109</v>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>0.4836529006882989</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.5163470993117011</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.53194935217903416</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.5319493521790342</v>
+      </c>
+      <c r="B4" s="0">
         <v>0.46805064782096584</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
@@ -2950,359 +3412,402 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" s="0">
         <v>0.11538461538461539</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="D2">
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="0">
+        <v>0.038461538461538464</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.038461538461538464</v>
+      </c>
+      <c r="E2" s="0">
         <v>0.19230769230769232</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="H2">
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="I2">
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="J2">
+      <c r="G2" s="0">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.038461538461538464</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="L2">
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="M2">
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="N2">
+      <c r="K2" s="0">
+        <v>0.038461538461538464</v>
+      </c>
+      <c r="L2" s="0">
+        <v>0.038461538461538464</v>
+      </c>
+      <c r="M2" s="0">
+        <v>0.038461538461538464</v>
+      </c>
+      <c r="N2" s="0">
         <v>0.11538461538461539</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="0">
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="0">
         <v>0</v>
       </c>
-      <c r="Q2">
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="R2">
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="S2">
+      <c r="Q2" s="0">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="R2" s="0">
+        <v>0.038461538461538464</v>
+      </c>
+      <c r="S2" s="0">
         <v>0</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="0">
         <v>0</v>
       </c>
-      <c r="U2">
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="V2">
+      <c r="U2" s="0">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="V2" s="0">
         <v>0</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="0">
         <v>0</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="0">
         <v>0</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="0">
         <v>0</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="0" t="s">
         <v>51</v>
       </c>
+      <c r="AA3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0">
         <v>0.12</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>0.08</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>0.08</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0.04</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>0.2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
         <v>0.04</v>
       </c>
-      <c r="J4">
+      <c r="K4" s="0">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="L4" s="0">
+        <v>0.04</v>
+      </c>
+      <c r="M4" s="0">
+        <v>0.04</v>
+      </c>
+      <c r="N4" s="0">
+        <v>0.04</v>
+      </c>
+      <c r="O4" s="0">
+        <v>0.12</v>
+      </c>
+      <c r="P4" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0">
         <v>0.08</v>
       </c>
-      <c r="L4">
+      <c r="S4" s="0">
         <v>0.04</v>
       </c>
-      <c r="M4">
+      <c r="T4" s="0">
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="U4" s="0">
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="V4" s="0">
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="W4" s="0">
         <v>0</v>
       </c>
-      <c r="Q4">
+      <c r="X4" s="0">
         <v>0</v>
       </c>
-      <c r="R4">
+      <c r="Y4" s="0">
         <v>0.04</v>
       </c>
-      <c r="S4">
+      <c r="Z4" s="0">
         <v>0</v>
       </c>
-      <c r="T4">
+      <c r="AA4" s="0">
         <v>0</v>
       </c>
-      <c r="U4">
+      <c r="AB4" s="0">
         <v>0</v>
       </c>
-      <c r="V4">
+      <c r="AC4" s="0">
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="AD4" s="0">
         <v>0.04</v>
       </c>
-      <c r="X4">
+      <c r="AE4" s="0">
         <v>0</v>
       </c>
-      <c r="Y4">
+      <c r="AF4" s="0">
         <v>0</v>
       </c>
-      <c r="Z4">
+      <c r="AG4" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0">
         <v>0.47596153846153844</v>
       </c>
-      <c r="B6">
-        <v>0.52403846153846156</v>
+      <c r="B6" s="0">
+        <v>0.5240384615384616</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.53749999999999998</v>
-      </c>
-      <c r="B8">
-        <v>0.46250000000000002</v>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.5375</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.4625</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>